--- a/赛事运营平台/02管理域/02项目计划/Xunao-SSYYZC-干系人RACI表.xlsx
+++ b/赛事运营平台/02管理域/02项目计划/Xunao-SSYYZC-干系人RACI表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27660" activeTab="1"/>
+    <workbookView windowWidth="27660"/>
   </bookViews>
   <sheets>
     <sheet name="RACI" sheetId="4" r:id="rId1"/>
@@ -406,7 +406,7 @@
     <t xml:space="preserve"> 初版编写</t>
   </si>
   <si>
-    <t>2022/5/24</t>
+    <t>2022/12/6</t>
   </si>
   <si>
     <t>1.0.1</t>
@@ -415,7 +415,7 @@
     <t>增加干系人</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2022/6/1</t>
+    <t xml:space="preserve"> 2022/12/7</t>
   </si>
   <si>
     <t>一、项目基本情况</t>
@@ -1991,12 +1991,12 @@
   <sheetPr/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00961538461539" defaultRowHeight="16.8"/>
@@ -3528,8 +3528,8 @@
   <sheetPr/>
   <dimension ref="A1:IV73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="15.2"/>
@@ -6715,7 +6715,7 @@
         <v>181</v>
       </c>
       <c r="F35" s="43">
-        <v>44705</v>
+        <v>44901</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
